--- a/documents/鼎鋒設計報價單.xlsx
+++ b/documents/鼎鋒設計報價單.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianchen6501\Desktop\鼎鋒設計\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC288DBF-6A49-49A0-B7BF-C17BDFC8B60B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190835E1-67E5-491A-99DE-14B0F3293A9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{5E74B8C1-A84D-4E1E-B44F-09D75CD495DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{5E74B8C1-A84D-4E1E-B44F-09D75CD495DB}"/>
   </bookViews>
   <sheets>
     <sheet name="報價單" sheetId="1" r:id="rId1"/>
     <sheet name="需求" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">報價單!$B$2:$G$13</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +292,110 @@
     <t>電話、傳真、地址、電子信箱資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>gandi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>godaddy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namecheap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goddadi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aws_s3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛擬伺服器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無上限的儲存空間，通常用作靜態檔案或資料備份等使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">aws_ec2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛擬雲端執行環境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月 750hr instence 的免費使用時間。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網域(domain)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2的3GB email
+無限制別名與轉址
+1年 SSL 憑證
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinfongdesign.com 446/yr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只含 domain
+憑證、email 等另購</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain 一套三組 28美/yr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待辦事項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預完日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁主體設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain + server 申請</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ga 置入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google 註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie 政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -495,7 +601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,6 +617,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,17 +692,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,14 +1026,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -1032,50 +1141,50 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="18" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="2:7" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1096,69 +1205,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036D4F2-DF15-4DE3-9D9E-A21D30B69769}">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="26"/>
-    <col min="2" max="2" width="17.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="48.44140625" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="17.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="48.44140625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1167,4 +1276,164 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFC2C97-E27E-4542-8385-53D97C36B7D5}">
+  <dimension ref="B2:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="30"/>
+    <col min="2" max="2" width="17.21875" style="30" customWidth="1"/>
+    <col min="3" max="4" width="27.5546875" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8BA21E-8331-4032-B2E4-7318C7609C97}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="28.77734375" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/鼎鋒設計報價單.xlsx
+++ b/documents/鼎鋒設計報價單.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianchen6501\Desktop\鼎鋒設計\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC288DBF-6A49-49A0-B7BF-C17BDFC8B60B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C53E985-4A3F-4A17-A01E-0170ECB18BCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{5E74B8C1-A84D-4E1E-B44F-09D75CD495DB}"/>
   </bookViews>
   <sheets>
     <sheet name="報價單" sheetId="1" r:id="rId1"/>
-    <sheet name="需求" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId2"/>
+    <sheet name="需求" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">報價單!$B$2:$G$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">需求!$B$2:$C$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">需求!$B$2:$C$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,12 +291,60 @@
     <t>電話、傳真、地址、電子信箱資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>網域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DinfongIDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF-design .com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dinfong6596</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gandi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinfongdesign@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,6 +383,22 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Adobe 繁黑體 Std B"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -490,12 +555,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,6 +579,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,21 +654,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -917,14 +995,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -1032,50 +1110,50 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="18" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="2:7" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1093,72 +1171,153 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414C571F-9A00-4CC2-807B-430B6B776FA1}">
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="30"/>
+    <col min="3" max="3" width="36.44140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="30"/>
+    <col min="5" max="5" width="18" style="30" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="32">
+        <v>33239</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{130AFF7D-C84D-4C48-A87E-C813ED47BCB7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036D4F2-DF15-4DE3-9D9E-A21D30B69769}">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="26"/>
-    <col min="2" max="2" width="17.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="48.44140625" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="17.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="48.44140625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
